--- a/Code/Results/Cases/Case_6_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_39/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.38474195972746</v>
+        <v>14.06137082379247</v>
       </c>
       <c r="C2">
-        <v>9.613979429869584</v>
+        <v>7.077977435869581</v>
       </c>
       <c r="D2">
-        <v>1.898301669016681</v>
+        <v>5.132578124752007</v>
       </c>
       <c r="E2">
-        <v>6.412298002406651</v>
+        <v>7.926998346635113</v>
       </c>
       <c r="F2">
-        <v>42.54664689212147</v>
+        <v>26.89556787199072</v>
       </c>
       <c r="G2">
-        <v>2.144913726747268</v>
+        <v>2.134517911193287</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.266109508190026</v>
+        <v>6.136518368189272</v>
       </c>
       <c r="K2">
-        <v>15.75699371819324</v>
+        <v>10.98220850646021</v>
       </c>
       <c r="L2">
-        <v>6.810229335344639</v>
+        <v>6.517802541891784</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>32.37778190918829</v>
+        <v>20.3297609674433</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.23104685469141</v>
+        <v>13.22051432894325</v>
       </c>
       <c r="C3">
-        <v>9.002753799924166</v>
+        <v>7.044964373356093</v>
       </c>
       <c r="D3">
-        <v>1.877982741664109</v>
+        <v>4.952946131925544</v>
       </c>
       <c r="E3">
-        <v>6.430107127128497</v>
+        <v>7.882744353347054</v>
       </c>
       <c r="F3">
-        <v>41.46673924077154</v>
+        <v>26.82419011600373</v>
       </c>
       <c r="G3">
-        <v>2.155106858768595</v>
+        <v>2.139679385044715</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.306325814348219</v>
+        <v>6.184956155483055</v>
       </c>
       <c r="K3">
-        <v>14.86394944352986</v>
+        <v>10.31908562902542</v>
       </c>
       <c r="L3">
-        <v>6.696984157825081</v>
+        <v>6.38990027963931</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>31.64145281258979</v>
+        <v>20.41201796708637</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.50243635526394</v>
+        <v>12.68027355054187</v>
       </c>
       <c r="C4">
-        <v>8.609060023940874</v>
+        <v>7.025178937028395</v>
       </c>
       <c r="D4">
-        <v>1.866178249042336</v>
+        <v>4.841056755153912</v>
       </c>
       <c r="E4">
-        <v>6.44295498553651</v>
+        <v>7.858776419024031</v>
       </c>
       <c r="F4">
-        <v>40.82347607799429</v>
+        <v>26.79940995607821</v>
       </c>
       <c r="G4">
-        <v>2.161517777936563</v>
+        <v>2.142949671017287</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.332419673393491</v>
+        <v>6.216182420127442</v>
       </c>
       <c r="K4">
-        <v>14.30000079668388</v>
+        <v>9.889732244750471</v>
       </c>
       <c r="L4">
-        <v>6.630489164954866</v>
+        <v>6.312395053497062</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>31.20611047648929</v>
+        <v>20.4761433230929</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.20071721356456</v>
+        <v>12.4542447277776</v>
       </c>
       <c r="C5">
-        <v>8.443966774606579</v>
+        <v>7.017237577759476</v>
       </c>
       <c r="D5">
-        <v>1.861523368474751</v>
+        <v>4.79512693662464</v>
       </c>
       <c r="E5">
-        <v>6.44866345179313</v>
+        <v>7.849808511603006</v>
       </c>
       <c r="F5">
-        <v>40.56638039928266</v>
+        <v>26.79396298828726</v>
       </c>
       <c r="G5">
-        <v>2.164170756156441</v>
+        <v>2.144308314456723</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.343403505087532</v>
+        <v>6.229280420351409</v>
       </c>
       <c r="K5">
-        <v>14.06648120006577</v>
+        <v>9.70920934072349</v>
       </c>
       <c r="L5">
-        <v>6.604163468644527</v>
+        <v>6.281102783088105</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>31.03291001487456</v>
+        <v>20.50557838824148</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.15033655671229</v>
+        <v>12.41636292957603</v>
       </c>
       <c r="C6">
-        <v>8.416270980313712</v>
+        <v>7.015926238151597</v>
       </c>
       <c r="D6">
-        <v>1.860759459439728</v>
+        <v>4.787482225368571</v>
       </c>
       <c r="E6">
-        <v>6.449639667978974</v>
+        <v>7.848367458546694</v>
       </c>
       <c r="F6">
-        <v>40.52399597814166</v>
+        <v>26.79333532493008</v>
       </c>
       <c r="G6">
-        <v>2.164613786735321</v>
+        <v>2.144535500617629</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.345248472938897</v>
+        <v>6.231477854255582</v>
       </c>
       <c r="K6">
-        <v>14.02748919959775</v>
+        <v>9.678898880191092</v>
       </c>
       <c r="L6">
-        <v>6.599838919250904</v>
+        <v>6.275925324234079</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>31.00440382516875</v>
+        <v>20.5106620944357</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.4983862887836</v>
+        <v>12.67724881854216</v>
       </c>
       <c r="C7">
-        <v>8.606852421707718</v>
+        <v>7.025071346279714</v>
       </c>
       <c r="D7">
-        <v>1.866114858524351</v>
+        <v>4.840438589032454</v>
       </c>
       <c r="E7">
-        <v>6.443030067756215</v>
+        <v>7.858652247991044</v>
       </c>
       <c r="F7">
-        <v>40.81998831199278</v>
+        <v>26.79931784944943</v>
       </c>
       <c r="G7">
-        <v>2.161553390266609</v>
+        <v>2.142967888275159</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.332566388853665</v>
+        <v>6.216357554355469</v>
       </c>
       <c r="K7">
-        <v>14.29686614108258</v>
+        <v>9.887320114382463</v>
       </c>
       <c r="L7">
-        <v>6.630130993683593</v>
+        <v>6.311971809504599</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>31.20375762398367</v>
+        <v>20.47652707695018</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.99129626794799</v>
+        <v>13.77649129513426</v>
       </c>
       <c r="C8">
-        <v>9.407023766277241</v>
+        <v>7.066493569855695</v>
       </c>
       <c r="D8">
-        <v>1.891147936155698</v>
+        <v>5.071010315888032</v>
       </c>
       <c r="E8">
-        <v>6.418036471261977</v>
+        <v>7.911070919619895</v>
       </c>
       <c r="F8">
-        <v>42.1702181042004</v>
+        <v>26.86692198850828</v>
       </c>
       <c r="G8">
-        <v>2.148398073077895</v>
+        <v>2.136276937250317</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.279684123887106</v>
+        <v>6.152911144227632</v>
       </c>
       <c r="K8">
-        <v>15.45242809096045</v>
+        <v>10.75817982367529</v>
       </c>
       <c r="L8">
-        <v>6.770556483267836</v>
+        <v>6.473508596765841</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>32.12040874900003</v>
+        <v>20.35522266426291</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.74946763958848</v>
+        <v>15.73736372859003</v>
       </c>
       <c r="C9">
-        <v>10.8322928753168</v>
+        <v>7.151603619341658</v>
       </c>
       <c r="D9">
-        <v>1.946240760650459</v>
+        <v>5.507876770689077</v>
       </c>
       <c r="E9">
-        <v>6.384599264341214</v>
+        <v>8.039536916994821</v>
       </c>
       <c r="F9">
-        <v>44.97319365958737</v>
+        <v>27.15657351537637</v>
       </c>
       <c r="G9">
-        <v>2.123701412478634</v>
+        <v>2.123932266941823</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.187195645010388</v>
+        <v>6.040304148765252</v>
       </c>
       <c r="K9">
-        <v>17.72968648045669</v>
+        <v>12.28943930683486</v>
       </c>
       <c r="L9">
-        <v>7.069723365166725</v>
+        <v>6.796991420137931</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>34.05178800112108</v>
+        <v>20.23098571320671</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.66546778148608</v>
+        <v>17.05925608881696</v>
       </c>
       <c r="C10">
-        <v>11.79552353155882</v>
+        <v>7.216568565544888</v>
       </c>
       <c r="D10">
-        <v>1.991450754182042</v>
+        <v>5.81644775314969</v>
       </c>
       <c r="E10">
-        <v>6.370126605271796</v>
+        <v>8.149862180509533</v>
       </c>
       <c r="F10">
-        <v>47.12633269215589</v>
+        <v>27.47295597844593</v>
       </c>
       <c r="G10">
-        <v>2.106062577801929</v>
+        <v>2.115297513451584</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.126239995744607</v>
+        <v>5.964820356903305</v>
       </c>
       <c r="K10">
-        <v>19.45416728989163</v>
+        <v>13.30702547066928</v>
       </c>
       <c r="L10">
-        <v>7.303716954077235</v>
+        <v>7.036890077624053</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>35.55448843558086</v>
+        <v>20.21684970502924</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.51282887995727</v>
+        <v>17.67441910732694</v>
       </c>
       <c r="C11">
-        <v>12.21656331574247</v>
+        <v>7.24667110887027</v>
       </c>
       <c r="D11">
-        <v>2.013327757473258</v>
+        <v>5.953607593235743</v>
       </c>
       <c r="E11">
-        <v>6.365881934090353</v>
+        <v>8.203560386879721</v>
       </c>
       <c r="F11">
-        <v>48.12675228748486</v>
+        <v>27.64094576138426</v>
       </c>
       <c r="G11">
-        <v>2.098106412742071</v>
+        <v>2.111454781001558</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.100072675556102</v>
+        <v>5.932070156771698</v>
       </c>
       <c r="K11">
-        <v>20.20624281187408</v>
+        <v>13.74681616845179</v>
       </c>
       <c r="L11">
-        <v>7.413230993846068</v>
+        <v>7.146148778112075</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>36.25716943525287</v>
+        <v>20.22891819337439</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.85218863606902</v>
+        <v>17.90256520454205</v>
       </c>
       <c r="C12">
-        <v>12.37363979693938</v>
+        <v>7.258151021582472</v>
       </c>
       <c r="D12">
-        <v>2.021828009199959</v>
+        <v>6.005048830785214</v>
       </c>
       <c r="E12">
-        <v>6.364624656205777</v>
+        <v>8.224402000194074</v>
       </c>
       <c r="F12">
-        <v>48.50870078635793</v>
+        <v>27.7081406153617</v>
       </c>
       <c r="G12">
-        <v>2.095099453109011</v>
+        <v>2.110011114024386</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.090392893172103</v>
+        <v>5.919898610989029</v>
       </c>
       <c r="K12">
-        <v>20.48655894870372</v>
+        <v>13.91005215714489</v>
       </c>
       <c r="L12">
-        <v>7.455145209805819</v>
+        <v>7.187512781276392</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>36.52611363264722</v>
+        <v>20.23629594808575</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.77771303481773</v>
+        <v>17.85364254933052</v>
       </c>
       <c r="C13">
-        <v>12.33991383563053</v>
+        <v>7.255674995947646</v>
       </c>
       <c r="D13">
-        <v>2.019987246888256</v>
+        <v>5.993992720289368</v>
       </c>
       <c r="E13">
-        <v>6.364879629383499</v>
+        <v>8.219890790426291</v>
       </c>
       <c r="F13">
-        <v>48.42630073980207</v>
+        <v>27.69350788333327</v>
       </c>
       <c r="G13">
-        <v>2.095746861541997</v>
+        <v>2.110321535158508</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.092467331449643</v>
+        <v>5.922509696629207</v>
       </c>
       <c r="K13">
-        <v>20.4263839428436</v>
+        <v>13.87504289470616</v>
       </c>
       <c r="L13">
-        <v>7.446098415103587</v>
+        <v>7.178605167793937</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>36.46806258787149</v>
+        <v>20.23457976671364</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.53901289279522</v>
+        <v>17.69328475019361</v>
       </c>
       <c r="C14">
-        <v>12.22953279462462</v>
+        <v>7.247613939347519</v>
       </c>
       <c r="D14">
-        <v>2.014022580276825</v>
+        <v>5.957849869113259</v>
       </c>
       <c r="E14">
-        <v>6.365771397104762</v>
+        <v>8.205264860029004</v>
       </c>
       <c r="F14">
-        <v>48.15811228230339</v>
+        <v>27.64640148736317</v>
       </c>
       <c r="G14">
-        <v>2.097858934671485</v>
+        <v>2.11133578389697</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.099271691072395</v>
+        <v>5.931064169680092</v>
       </c>
       <c r="K14">
-        <v>20.22939323883675</v>
+        <v>13.76031175637902</v>
       </c>
       <c r="L14">
-        <v>7.416670380548934</v>
+        <v>7.149552171283805</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>36.27923767010945</v>
+        <v>20.22946804102876</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.401950403487</v>
+        <v>17.59443720378411</v>
       </c>
       <c r="C15">
-        <v>12.16161688659255</v>
+        <v>7.242686878922806</v>
       </c>
       <c r="D15">
-        <v>2.010398046951166</v>
+        <v>5.935645458383399</v>
       </c>
       <c r="E15">
-        <v>6.366363653892527</v>
+        <v>8.196372181869473</v>
       </c>
       <c r="F15">
-        <v>47.99424825837122</v>
+        <v>27.61801726523367</v>
       </c>
       <c r="G15">
-        <v>2.099153281412165</v>
+        <v>2.111958513571072</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.103469558305971</v>
+        <v>5.936334079054046</v>
       </c>
       <c r="K15">
-        <v>20.10815321167926</v>
+        <v>13.68960614598449</v>
       </c>
       <c r="L15">
-        <v>7.398702781688055</v>
+        <v>7.131754285059294</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>36.16395255093894</v>
+        <v>20.22670702880997</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.60960535505518</v>
+        <v>17.01837855999189</v>
       </c>
       <c r="C16">
-        <v>11.76767114023818</v>
+        <v>7.214612491608873</v>
       </c>
       <c r="D16">
-        <v>1.990049674039476</v>
+        <v>5.80741617673154</v>
       </c>
       <c r="E16">
-        <v>6.370452214784112</v>
+        <v>8.146423738549858</v>
       </c>
       <c r="F16">
-        <v>47.06138156793256</v>
+        <v>27.46247209686984</v>
       </c>
       <c r="G16">
-        <v>2.106583574762273</v>
+        <v>2.115550296150842</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.127981897979275</v>
+        <v>5.966992766269748</v>
       </c>
       <c r="K16">
-        <v>19.40438039444533</v>
+        <v>13.27782063758686</v>
       </c>
       <c r="L16">
-        <v>7.296621803832931</v>
+        <v>7.029749865185162</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>35.50895919023262</v>
+        <v>20.21644579959845</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.11733241870888</v>
+        <v>16.68146995332329</v>
       </c>
       <c r="C17">
-        <v>11.52167689833009</v>
+        <v>7.197531651822212</v>
       </c>
       <c r="D17">
-        <v>1.977920658788181</v>
+        <v>5.72790154544157</v>
       </c>
       <c r="E17">
-        <v>6.37356884333392</v>
+        <v>8.116683034633802</v>
       </c>
       <c r="F17">
-        <v>46.49451547373945</v>
+        <v>27.37330103508887</v>
       </c>
       <c r="G17">
-        <v>2.11115656515245</v>
+        <v>2.11777504412631</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.143422499583187</v>
+        <v>5.986208806296518</v>
       </c>
       <c r="K17">
-        <v>18.9644624363762</v>
+        <v>13.01929642094199</v>
       </c>
       <c r="L17">
-        <v>7.234784726511532</v>
+        <v>6.967185320791963</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>35.1120977090022</v>
+        <v>20.21499303071977</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.8319029935224</v>
+        <v>16.48588995088277</v>
       </c>
       <c r="C18">
-        <v>11.37856737597838</v>
+        <v>7.187758822189978</v>
       </c>
       <c r="D18">
-        <v>1.971065892046631</v>
+        <v>5.681866445669043</v>
       </c>
       <c r="E18">
-        <v>6.375580705847572</v>
+        <v>8.099907299786118</v>
       </c>
       <c r="F18">
-        <v>46.17043144163834</v>
+        <v>27.32427052628928</v>
       </c>
       <c r="G18">
-        <v>2.113793470255482</v>
+        <v>2.119062734132175</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.1524502033766</v>
+        <v>5.997410676531282</v>
       </c>
       <c r="K18">
-        <v>18.70837172493186</v>
+        <v>12.86842291120401</v>
       </c>
       <c r="L18">
-        <v>7.199506177066779</v>
+        <v>6.931213412960369</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>34.88562219965293</v>
+        <v>20.21588965378699</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.73486828680427</v>
+        <v>16.4192321696068</v>
       </c>
       <c r="C19">
-        <v>11.3298318038499</v>
+        <v>7.184458728927086</v>
       </c>
       <c r="D19">
-        <v>1.968765082741775</v>
+        <v>5.666229366128544</v>
       </c>
       <c r="E19">
-        <v>6.376299149479914</v>
+        <v>8.094283977457698</v>
       </c>
       <c r="F19">
-        <v>46.06103710365493</v>
+        <v>27.30805376788196</v>
       </c>
       <c r="G19">
-        <v>2.114687532998934</v>
+        <v>2.119500133153573</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.15553189082309</v>
+        <v>6.001229028561008</v>
       </c>
       <c r="K19">
-        <v>18.62113281427905</v>
+        <v>12.81696525153805</v>
       </c>
       <c r="L19">
-        <v>7.187611021345859</v>
+        <v>6.919037170649663</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>34.80924602465547</v>
+        <v>20.21648629351611</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.16997228106312</v>
+        <v>16.71745929018417</v>
       </c>
       <c r="C20">
-        <v>11.54803038795581</v>
+        <v>7.199344582899109</v>
       </c>
       <c r="D20">
-        <v>1.979199049534285</v>
+        <v>5.736397385132708</v>
       </c>
       <c r="E20">
-        <v>6.373214285147117</v>
+        <v>8.119814776300368</v>
       </c>
       <c r="F20">
-        <v>46.55465570753933</v>
+        <v>27.38255883296871</v>
       </c>
       <c r="G20">
-        <v>2.11066910182661</v>
+        <v>2.117537385708326</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.141763609182745</v>
+        <v>5.984147759895453</v>
       </c>
       <c r="K20">
-        <v>19.01160806818015</v>
+        <v>13.04704196597788</v>
       </c>
       <c r="L20">
-        <v>7.241337528329004</v>
+        <v>6.973844231554298</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>35.15415850586663</v>
+        <v>20.21496734234897</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.60571343977204</v>
+        <v>17.74051561155055</v>
       </c>
       <c r="C21">
-        <v>12.26201760118246</v>
+        <v>7.249979460916081</v>
       </c>
       <c r="D21">
-        <v>2.015768449933085</v>
+        <v>5.968479685391751</v>
       </c>
       <c r="E21">
-        <v>6.365499845560553</v>
+        <v>8.20954706581176</v>
       </c>
       <c r="F21">
-        <v>48.23680020340712</v>
+        <v>27.66013966295748</v>
       </c>
       <c r="G21">
-        <v>2.097238441613727</v>
+        <v>2.111037568917216</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.097266824314087</v>
+        <v>5.92854524776257</v>
       </c>
       <c r="K21">
-        <v>20.28737418960765</v>
+        <v>13.79410053120068</v>
       </c>
       <c r="L21">
-        <v>7.425302025768644</v>
+        <v>7.158086222603707</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>36.33462160039858</v>
+        <v>20.23089209010989</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.60606417464058</v>
+        <v>18.39569977826897</v>
       </c>
       <c r="C22">
-        <v>12.71493946398068</v>
+        <v>7.283543878984773</v>
       </c>
       <c r="D22">
-        <v>2.04094278332933</v>
+        <v>6.117241850633106</v>
       </c>
       <c r="E22">
-        <v>6.36250601720994</v>
+        <v>8.271149934008816</v>
       </c>
       <c r="F22">
-        <v>49.3544052254616</v>
+        <v>27.86247871550157</v>
       </c>
       <c r="G22">
-        <v>2.088492780163139</v>
+        <v>2.106856157477134</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.069524334108467</v>
+        <v>5.893548977652968</v>
       </c>
       <c r="K22">
-        <v>21.09515578144298</v>
+        <v>14.26310596333661</v>
       </c>
       <c r="L22">
-        <v>7.548123964130482</v>
+        <v>7.278429948508734</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>37.12283966375917</v>
+        <v>20.25773544538911</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.07476702128076</v>
+        <v>18.0485554908066</v>
       </c>
       <c r="C23">
-        <v>12.47442328085474</v>
+        <v>7.265586120788381</v>
       </c>
       <c r="D23">
-        <v>2.027380077323671</v>
+        <v>6.038122223279403</v>
       </c>
       <c r="E23">
-        <v>6.363911570085502</v>
+        <v>8.237999991587634</v>
       </c>
       <c r="F23">
-        <v>48.75620171210432</v>
+        <v>27.75253353247437</v>
       </c>
       <c r="G23">
-        <v>2.093158979171157</v>
+        <v>2.109082028617394</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.084206800902233</v>
+        <v>5.912103516498531</v>
       </c>
       <c r="K23">
-        <v>20.6663419074354</v>
+        <v>14.01454133651637</v>
       </c>
       <c r="L23">
-        <v>7.482332498442481</v>
+        <v>7.214215267998717</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>36.70057648226076</v>
+        <v>20.24185535453126</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.14618132443465</v>
+        <v>16.70119673456646</v>
       </c>
       <c r="C24">
-        <v>11.53612122861256</v>
+        <v>7.198524809950248</v>
       </c>
       <c r="D24">
-        <v>1.978620722414116</v>
+        <v>5.732557413263673</v>
       </c>
       <c r="E24">
-        <v>6.373373896450464</v>
+        <v>8.1183979112781</v>
       </c>
       <c r="F24">
-        <v>46.5274606617092</v>
+        <v>27.37836642979215</v>
       </c>
       <c r="G24">
-        <v>2.110889459313383</v>
+        <v>2.11764480407016</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.142513124490224</v>
+        <v>5.985079078464795</v>
       </c>
       <c r="K24">
-        <v>18.99030343400379</v>
+        <v>13.03450519766719</v>
       </c>
       <c r="L24">
-        <v>7.238374158233192</v>
+        <v>6.970833744292794</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>35.13513757745427</v>
+        <v>20.21497357291127</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.02241477879523</v>
+        <v>15.22827986870643</v>
       </c>
       <c r="C25">
-        <v>10.46177381653461</v>
+        <v>7.12815722889021</v>
       </c>
       <c r="D25">
-        <v>1.930591395556943</v>
+        <v>5.391670814878117</v>
       </c>
       <c r="E25">
-        <v>6.39191874415064</v>
+        <v>8.002001717997185</v>
       </c>
       <c r="F25">
-        <v>44.19848442243737</v>
+        <v>27.06057220624575</v>
       </c>
       <c r="G25">
-        <v>2.1302807437219</v>
+        <v>2.127192559254087</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.211000846165295</v>
+        <v>6.069498743752125</v>
       </c>
       <c r="K25">
-        <v>17.06480753169407</v>
+        <v>11.89410166390988</v>
       </c>
       <c r="L25">
-        <v>6.986281468951515</v>
+        <v>6.708958775580305</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>33.51480824248107</v>
+        <v>20.25162912768664</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.06137082379247</v>
+        <v>13.85564855234587</v>
       </c>
       <c r="C2">
-        <v>7.077977435869581</v>
+        <v>7.814206871757194</v>
       </c>
       <c r="D2">
-        <v>5.132578124752007</v>
+        <v>6.155655140677574</v>
       </c>
       <c r="E2">
-        <v>7.926998346635113</v>
+        <v>8.090503851845169</v>
       </c>
       <c r="F2">
-        <v>26.89556787199072</v>
+        <v>21.48218475102945</v>
       </c>
       <c r="G2">
-        <v>2.134517911193287</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>23.72727342677469</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.592548227675536</v>
       </c>
       <c r="J2">
-        <v>6.136518368189272</v>
+        <v>9.734188309160889</v>
       </c>
       <c r="K2">
-        <v>10.98220850646021</v>
+        <v>15.97641860728155</v>
       </c>
       <c r="L2">
-        <v>6.517802541891784</v>
+        <v>5.879255198119284</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.6036781861097</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.789541201330385</v>
       </c>
       <c r="O2">
-        <v>20.3297609674433</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>15.8493452243149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.22051432894325</v>
+        <v>12.94778577951303</v>
       </c>
       <c r="C3">
-        <v>7.044964373356093</v>
+        <v>7.668357480268051</v>
       </c>
       <c r="D3">
-        <v>4.952946131925544</v>
+        <v>5.953816532472063</v>
       </c>
       <c r="E3">
-        <v>7.882744353347054</v>
+        <v>8.036918342420416</v>
       </c>
       <c r="F3">
-        <v>26.82419011600373</v>
+        <v>21.47669835143222</v>
       </c>
       <c r="G3">
-        <v>2.139679385044715</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>23.78890175080114</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.748465994336775</v>
       </c>
       <c r="J3">
-        <v>6.184956155483055</v>
+        <v>9.820293218543471</v>
       </c>
       <c r="K3">
-        <v>10.31908562902542</v>
+        <v>16.15318218002966</v>
       </c>
       <c r="L3">
-        <v>6.38990027963931</v>
+        <v>5.91424516367363</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.973668558884</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.645846828257171</v>
       </c>
       <c r="O3">
-        <v>20.41201796708637</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>15.96925105511513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.68027355054187</v>
+        <v>12.35542642483516</v>
       </c>
       <c r="C4">
-        <v>7.025178937028395</v>
+        <v>7.57819678210536</v>
       </c>
       <c r="D4">
-        <v>4.841056755153912</v>
+        <v>5.828612424495576</v>
       </c>
       <c r="E4">
-        <v>7.858776419024031</v>
+        <v>8.00625442634295</v>
       </c>
       <c r="F4">
-        <v>26.79940995607821</v>
+        <v>21.48431080702526</v>
       </c>
       <c r="G4">
-        <v>2.142949671017287</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>23.8419074659961</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.848463692863831</v>
       </c>
       <c r="J4">
-        <v>6.216182420127442</v>
+        <v>9.876376738814498</v>
       </c>
       <c r="K4">
-        <v>9.889732244750471</v>
+        <v>16.26686473726125</v>
       </c>
       <c r="L4">
-        <v>6.312395053497062</v>
+        <v>5.936583385788831</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.56762585614484</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.559173743671225</v>
       </c>
       <c r="O4">
-        <v>20.4761433230929</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>16.04997346967005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.4542447277776</v>
+        <v>12.10302206371895</v>
       </c>
       <c r="C5">
-        <v>7.017237577759476</v>
+        <v>7.545067151133273</v>
       </c>
       <c r="D5">
-        <v>4.79512693662464</v>
+        <v>5.778014419133273</v>
       </c>
       <c r="E5">
-        <v>7.849808511603006</v>
+        <v>7.993352664647424</v>
       </c>
       <c r="F5">
-        <v>26.79396298828726</v>
+        <v>21.48419910450276</v>
       </c>
       <c r="G5">
-        <v>2.144308314456723</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>23.85756841501775</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.892783022011458</v>
       </c>
       <c r="J5">
-        <v>6.229280420351409</v>
+        <v>9.898465441246792</v>
       </c>
       <c r="K5">
-        <v>9.70920934072349</v>
+        <v>16.31048558125078</v>
       </c>
       <c r="L5">
-        <v>6.281102783088105</v>
+        <v>5.945483245854635</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.39899883355292</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.525904204239838</v>
       </c>
       <c r="O5">
-        <v>20.50557838824148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>16.08069774484599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.41636292957603</v>
+        <v>12.05788612781647</v>
       </c>
       <c r="C6">
-        <v>7.015926238151597</v>
+        <v>7.544181213558855</v>
       </c>
       <c r="D6">
-        <v>4.787482225368571</v>
+        <v>5.770414593466743</v>
       </c>
       <c r="E6">
-        <v>7.848367458546694</v>
+        <v>7.990053404360406</v>
       </c>
       <c r="F6">
-        <v>26.79333532493008</v>
+        <v>21.47711718675518</v>
       </c>
       <c r="G6">
-        <v>2.144535500617629</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>23.84863284691027</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.903392580642069</v>
       </c>
       <c r="J6">
-        <v>6.231477854255582</v>
+        <v>9.900272722883008</v>
       </c>
       <c r="K6">
-        <v>9.678898880191092</v>
+        <v>16.3129432145533</v>
       </c>
       <c r="L6">
-        <v>6.275925324234079</v>
+        <v>5.946461602148382</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.37265776083013</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.52238626406751</v>
       </c>
       <c r="O6">
-        <v>20.5106620944357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>16.08112843841636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.67724881854216</v>
+        <v>12.34488451067439</v>
       </c>
       <c r="C7">
-        <v>7.025071346279714</v>
+        <v>7.590360189709985</v>
       </c>
       <c r="D7">
-        <v>4.840438589032454</v>
+        <v>5.830124908827409</v>
       </c>
       <c r="E7">
-        <v>7.858652247991044</v>
+        <v>8.002833066757034</v>
       </c>
       <c r="F7">
-        <v>26.79931784944943</v>
+        <v>21.46460082856063</v>
       </c>
       <c r="G7">
-        <v>2.142967888275159</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>23.81001891245979</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.857479973055691</v>
       </c>
       <c r="J7">
-        <v>6.216357554355469</v>
+        <v>9.871467447922292</v>
       </c>
       <c r="K7">
-        <v>9.887320114382463</v>
+        <v>16.25417195929725</v>
       </c>
       <c r="L7">
-        <v>6.311971809504599</v>
+        <v>5.935310123609688</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.57059197079286</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.564082203888219</v>
       </c>
       <c r="O7">
-        <v>20.47652707695018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>16.03734763360066</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.77649129513426</v>
+        <v>13.54109142047923</v>
       </c>
       <c r="C8">
-        <v>7.066493569855695</v>
+        <v>7.780697347965136</v>
       </c>
       <c r="D8">
-        <v>5.071010315888032</v>
+        <v>6.089140707636552</v>
       </c>
       <c r="E8">
-        <v>7.911070919619895</v>
+        <v>8.067314863067301</v>
       </c>
       <c r="F8">
-        <v>26.86692198850828</v>
+        <v>21.45208311763009</v>
       </c>
       <c r="G8">
-        <v>2.136276937250317</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>23.70297949748393</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.656128205331007</v>
       </c>
       <c r="J8">
-        <v>6.152911144227632</v>
+        <v>9.756345809993029</v>
       </c>
       <c r="K8">
-        <v>10.75817982367529</v>
+        <v>16.01874166863074</v>
       </c>
       <c r="L8">
-        <v>6.473508596765841</v>
+        <v>5.889332027611837</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.39701164617558</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.746578423466085</v>
       </c>
       <c r="O8">
-        <v>20.35522266426291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>15.87197061327249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.73736372859003</v>
+        <v>15.62253898581047</v>
       </c>
       <c r="C9">
-        <v>7.151603619341658</v>
+        <v>8.126412967874778</v>
       </c>
       <c r="D9">
-        <v>5.507876770689077</v>
+        <v>6.580122327971615</v>
       </c>
       <c r="E9">
-        <v>8.039536916994821</v>
+        <v>8.217000878786957</v>
       </c>
       <c r="F9">
-        <v>27.15657351537637</v>
+        <v>21.55262926192845</v>
       </c>
       <c r="G9">
-        <v>2.123932266941823</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>23.676903249275</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.280892216904951</v>
       </c>
       <c r="J9">
-        <v>6.040304148765252</v>
+        <v>9.566008470902444</v>
       </c>
       <c r="K9">
-        <v>12.28943930683486</v>
+        <v>15.62263046291242</v>
       </c>
       <c r="L9">
-        <v>6.796991420137931</v>
+        <v>5.808315223556446</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.85382681785567</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.105734497484266</v>
       </c>
       <c r="O9">
-        <v>20.23098571320671</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>15.62968605881645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.05925608881696</v>
+        <v>16.98295338905519</v>
       </c>
       <c r="C10">
-        <v>7.216568565544888</v>
+        <v>8.383374954023372</v>
       </c>
       <c r="D10">
-        <v>5.81644775314969</v>
+        <v>6.92991361524971</v>
       </c>
       <c r="E10">
-        <v>8.149862180509533</v>
+        <v>8.335703244302248</v>
       </c>
       <c r="F10">
-        <v>27.47295597844593</v>
+        <v>21.67589363135852</v>
       </c>
       <c r="G10">
-        <v>2.115297513451584</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>23.72782041065125</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.030064563410172</v>
       </c>
       <c r="J10">
-        <v>5.964820356903305</v>
+        <v>9.440544576691735</v>
       </c>
       <c r="K10">
-        <v>13.30702547066928</v>
+        <v>15.35210376327794</v>
       </c>
       <c r="L10">
-        <v>7.036890077624053</v>
+        <v>5.752135620785543</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.82915886759807</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.375999499598865</v>
       </c>
       <c r="O10">
-        <v>20.21684970502924</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>15.48458907863168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.67441910732694</v>
+        <v>17.55788204898413</v>
       </c>
       <c r="C11">
-        <v>7.24667110887027</v>
+        <v>8.51962427949395</v>
       </c>
       <c r="D11">
-        <v>5.953607593235743</v>
+        <v>7.088655480876496</v>
       </c>
       <c r="E11">
-        <v>8.203560386879721</v>
+        <v>8.38682383915949</v>
       </c>
       <c r="F11">
-        <v>27.64094576138426</v>
+        <v>21.71469148964218</v>
       </c>
       <c r="G11">
-        <v>2.111454781001558</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>23.72049556166748</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.935838031746154</v>
       </c>
       <c r="J11">
-        <v>5.932070156771698</v>
+        <v>9.378952831137182</v>
       </c>
       <c r="K11">
-        <v>13.74681616845179</v>
+        <v>15.21350813475653</v>
       </c>
       <c r="L11">
-        <v>7.146148778112075</v>
+        <v>5.725279906326161</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.25807017389279</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.506859131860769</v>
       </c>
       <c r="O11">
-        <v>20.22891819337439</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>15.40677653586531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.90256520454205</v>
+        <v>17.77519154461096</v>
       </c>
       <c r="C12">
-        <v>7.258151021582472</v>
+        <v>8.560365286579454</v>
       </c>
       <c r="D12">
-        <v>6.005048830785214</v>
+        <v>7.146677913872086</v>
       </c>
       <c r="E12">
-        <v>8.224402000194074</v>
+        <v>8.409172058932349</v>
       </c>
       <c r="F12">
-        <v>27.7081406153617</v>
+        <v>21.74793756895884</v>
       </c>
       <c r="G12">
-        <v>2.110011114024386</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>23.74802742401661</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.892931845624924</v>
       </c>
       <c r="J12">
-        <v>5.919898610989029</v>
+        <v>9.360696531854083</v>
       </c>
       <c r="K12">
-        <v>13.91005215714489</v>
+        <v>15.17352408742471</v>
       </c>
       <c r="L12">
-        <v>7.187512781276392</v>
+        <v>5.716379275550066</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.41374763381235</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.552334131543587</v>
       </c>
       <c r="O12">
-        <v>20.23629594808575</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>15.38998770107899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.85364254933052</v>
+        <v>17.7295258364432</v>
       </c>
       <c r="C13">
-        <v>7.255674995947646</v>
+        <v>8.549440821963096</v>
       </c>
       <c r="D13">
-        <v>5.993992720289368</v>
+        <v>7.133896122156629</v>
       </c>
       <c r="E13">
-        <v>8.219890790426291</v>
+        <v>8.404883546135965</v>
       </c>
       <c r="F13">
-        <v>27.69350788333327</v>
+        <v>21.74399346231928</v>
       </c>
       <c r="G13">
-        <v>2.110321535158508</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>23.74740681644703</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.900447291021913</v>
       </c>
       <c r="J13">
-        <v>5.922509696629207</v>
+        <v>9.365503709576608</v>
       </c>
       <c r="K13">
-        <v>13.87504289470616</v>
+        <v>15.18442153002419</v>
       </c>
       <c r="L13">
-        <v>7.178605167793937</v>
+        <v>5.718520953025862</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.37964173896002</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.541730002860782</v>
       </c>
       <c r="O13">
-        <v>20.23457976671364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>15.39580243342687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.69328475019361</v>
+        <v>17.57625163292101</v>
       </c>
       <c r="C14">
-        <v>7.247613939347519</v>
+        <v>8.522060476119027</v>
       </c>
       <c r="D14">
-        <v>5.957849869113259</v>
+        <v>7.093307399212813</v>
       </c>
       <c r="E14">
-        <v>8.205264860029004</v>
+        <v>8.388885389210806</v>
       </c>
       <c r="F14">
-        <v>27.64640148736317</v>
+        <v>21.71879287214908</v>
       </c>
       <c r="G14">
-        <v>2.11133578389697</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>23.72501565543001</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.931571646907419</v>
       </c>
       <c r="J14">
-        <v>5.931064169680092</v>
+        <v>9.377822023666766</v>
       </c>
       <c r="K14">
-        <v>13.76031175637902</v>
+        <v>15.21118797694926</v>
       </c>
       <c r="L14">
-        <v>7.149552171283805</v>
+        <v>5.724643065515435</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.27063381397146</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7.510254499462371</v>
       </c>
       <c r="O14">
-        <v>20.22946804102876</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>15.40632800820301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.59443720378411</v>
+        <v>17.479885938652</v>
       </c>
       <c r="C15">
-        <v>7.242686878922806</v>
+        <v>8.509542767860518</v>
       </c>
       <c r="D15">
-        <v>5.935645458383399</v>
+        <v>7.068993795262539</v>
       </c>
       <c r="E15">
-        <v>8.196372181869473</v>
+        <v>8.378061679969507</v>
       </c>
       <c r="F15">
-        <v>27.61801726523367</v>
+        <v>21.69708985604594</v>
       </c>
       <c r="G15">
-        <v>2.111958513571072</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>23.70095020679645</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.954123132448408</v>
       </c>
       <c r="J15">
-        <v>5.936334079054046</v>
+        <v>9.383669410050166</v>
       </c>
       <c r="K15">
-        <v>13.68960614598449</v>
+        <v>15.22313015057537</v>
       </c>
       <c r="L15">
-        <v>7.131754285059294</v>
+        <v>5.727954972047998</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.20488839073896</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>7.492586090196138</v>
       </c>
       <c r="O15">
-        <v>20.22670702880997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>15.40850517013528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.01837855999189</v>
+        <v>16.92896473016024</v>
       </c>
       <c r="C16">
-        <v>7.214612491608873</v>
+        <v>8.410459151079404</v>
       </c>
       <c r="D16">
-        <v>5.80741617673154</v>
+        <v>6.924757832371219</v>
       </c>
       <c r="E16">
-        <v>8.146423738549858</v>
+        <v>8.323400656126667</v>
       </c>
       <c r="F16">
-        <v>27.46247209686984</v>
+        <v>21.61834761486693</v>
       </c>
       <c r="G16">
-        <v>2.115550296150842</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>23.63772281640556</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.063212929984049</v>
       </c>
       <c r="J16">
-        <v>5.966992766269748</v>
+        <v>9.429686821439402</v>
       </c>
       <c r="K16">
-        <v>13.27782063758686</v>
+        <v>15.32272393195916</v>
       </c>
       <c r="L16">
-        <v>7.029749865185162</v>
+        <v>5.750070074388156</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.81295760693608</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>7.381189275607851</v>
       </c>
       <c r="O16">
-        <v>20.21644579959845</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>15.45227227041688</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.68146995332329</v>
+        <v>16.58190155174841</v>
       </c>
       <c r="C17">
-        <v>7.197531651822212</v>
+        <v>8.349381653753312</v>
       </c>
       <c r="D17">
-        <v>5.72790154544157</v>
+        <v>6.835404332704269</v>
       </c>
       <c r="E17">
-        <v>8.116683034633802</v>
+        <v>8.290438698514828</v>
       </c>
       <c r="F17">
-        <v>27.37330103508887</v>
+        <v>21.57376815122626</v>
       </c>
       <c r="G17">
-        <v>2.11777504412631</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>23.604613693779</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.131323166079151</v>
       </c>
       <c r="J17">
-        <v>5.986208806296518</v>
+        <v>9.459000554741797</v>
       </c>
       <c r="K17">
-        <v>13.01929642094199</v>
+        <v>15.3856352308686</v>
       </c>
       <c r="L17">
-        <v>6.967185320791963</v>
+        <v>5.76386744889015</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.56702785226803</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>7.312901402681038</v>
       </c>
       <c r="O17">
-        <v>20.21499303071977</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>15.48173249493783</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.48588995088277</v>
+        <v>16.38382835389071</v>
       </c>
       <c r="C18">
-        <v>7.187758822189978</v>
+        <v>8.303091508552562</v>
       </c>
       <c r="D18">
-        <v>5.681866445669043</v>
+        <v>6.782067264285528</v>
       </c>
       <c r="E18">
-        <v>8.099907299786118</v>
+        <v>8.274438054550142</v>
       </c>
       <c r="F18">
-        <v>27.32427052628928</v>
+        <v>21.56629931770892</v>
       </c>
       <c r="G18">
-        <v>2.119062734132175</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>23.61525948762916</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.16206974832094</v>
       </c>
       <c r="J18">
-        <v>5.997410676531282</v>
+        <v>9.480776137144325</v>
       </c>
       <c r="K18">
-        <v>12.86842291120401</v>
+        <v>15.43409309778126</v>
       </c>
       <c r="L18">
-        <v>6.931213412960369</v>
+        <v>5.773053025244432</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.41975220294708</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.269421090880175</v>
       </c>
       <c r="O18">
-        <v>20.21588965378699</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>15.51098805775429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.4192321696068</v>
+        <v>16.31241504149569</v>
       </c>
       <c r="C19">
-        <v>7.184458728927086</v>
+        <v>8.295913276159187</v>
       </c>
       <c r="D19">
-        <v>5.666229366128544</v>
+        <v>6.765219981165879</v>
       </c>
       <c r="E19">
-        <v>8.094283977457698</v>
+        <v>8.266940882049454</v>
       </c>
       <c r="F19">
-        <v>27.30805376788196</v>
+        <v>21.55102937554224</v>
       </c>
       <c r="G19">
-        <v>2.119500133153573</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>23.59788922006832</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.179323419444242</v>
       </c>
       <c r="J19">
-        <v>6.001229028561008</v>
+        <v>9.484724698670554</v>
       </c>
       <c r="K19">
-        <v>12.81696525153805</v>
+        <v>15.4416429241481</v>
       </c>
       <c r="L19">
-        <v>6.919037170649663</v>
+        <v>5.775279439301576</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.37247522738399</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.2579666393298</v>
       </c>
       <c r="O19">
-        <v>20.21648629351611</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>15.51227649630433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.71745929018417</v>
+        <v>16.61957379555494</v>
       </c>
       <c r="C20">
-        <v>7.199344582899109</v>
+        <v>8.35502846397549</v>
       </c>
       <c r="D20">
-        <v>5.736397385132708</v>
+        <v>6.844820469926222</v>
       </c>
       <c r="E20">
-        <v>8.119814776300368</v>
+        <v>8.294140503051564</v>
       </c>
       <c r="F20">
-        <v>27.38255883296871</v>
+        <v>21.57969104059839</v>
       </c>
       <c r="G20">
-        <v>2.117537385708326</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>23.61009202645323</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.123321108106464</v>
       </c>
       <c r="J20">
-        <v>5.984147759895453</v>
+        <v>9.456194551521213</v>
       </c>
       <c r="K20">
-        <v>13.04704196597788</v>
+        <v>15.37978272682669</v>
       </c>
       <c r="L20">
-        <v>6.973844231554298</v>
+        <v>5.762481148654667</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.59311987555573</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.319837785714323</v>
       </c>
       <c r="O20">
-        <v>20.21496734234897</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>15.47939159608671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.74051561155055</v>
+        <v>17.61628184100925</v>
       </c>
       <c r="C21">
-        <v>7.249979460916081</v>
+        <v>8.542230785946581</v>
       </c>
       <c r="D21">
-        <v>5.968479685391751</v>
+        <v>7.106983664670881</v>
       </c>
       <c r="E21">
-        <v>8.20954706581176</v>
+        <v>8.390557433926542</v>
       </c>
       <c r="F21">
-        <v>27.66013966295748</v>
+        <v>21.70757976689644</v>
       </c>
       <c r="G21">
-        <v>2.111037568917216</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>23.70093488254385</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.932187952802173</v>
       </c>
       <c r="J21">
-        <v>5.92854524776257</v>
+        <v>9.369132110929106</v>
       </c>
       <c r="K21">
-        <v>13.79410053120068</v>
+        <v>15.1902556862298</v>
       </c>
       <c r="L21">
-        <v>7.158086222603707</v>
+        <v>5.721551097071128</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.30676446616481</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.524054438078141</v>
       </c>
       <c r="O21">
-        <v>20.23089209010989</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>15.39050647964888</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.39569977826897</v>
+        <v>18.24459830219283</v>
       </c>
       <c r="C22">
-        <v>7.283543878984773</v>
+        <v>8.648214462974698</v>
       </c>
       <c r="D22">
-        <v>6.117241850633106</v>
+        <v>7.273089130657207</v>
       </c>
       <c r="E22">
-        <v>8.271149934008816</v>
+        <v>8.459233250844203</v>
       </c>
       <c r="F22">
-        <v>27.86247871550157</v>
+        <v>21.82714794729568</v>
       </c>
       <c r="G22">
-        <v>2.106856157477134</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>23.8182398062011</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.798595831960479</v>
       </c>
       <c r="J22">
-        <v>5.893548977652968</v>
+        <v>9.322298325834319</v>
       </c>
       <c r="K22">
-        <v>14.26310596333661</v>
+        <v>15.08907182832257</v>
       </c>
       <c r="L22">
-        <v>7.278429948508734</v>
+        <v>5.697190338230036</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.7500329083754</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.651765159213994</v>
       </c>
       <c r="O22">
-        <v>20.25773544538911</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>15.3573761947941</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.0485554908066</v>
+        <v>17.91807075267601</v>
       </c>
       <c r="C23">
-        <v>7.265586120788381</v>
+        <v>8.577193499579204</v>
       </c>
       <c r="D23">
-        <v>6.038122223279403</v>
+        <v>7.182645850187217</v>
       </c>
       <c r="E23">
-        <v>8.237999991587634</v>
+        <v>8.426045184176042</v>
       </c>
       <c r="F23">
-        <v>27.75253353247437</v>
+        <v>21.78450404668938</v>
       </c>
       <c r="G23">
-        <v>2.109082028617394</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>23.79063036402009</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.858096363190858</v>
       </c>
       <c r="J23">
-        <v>5.912103516498531</v>
+        <v>9.353048764894535</v>
       </c>
       <c r="K23">
-        <v>14.01454133651637</v>
+        <v>15.15824929553521</v>
       </c>
       <c r="L23">
-        <v>7.214215267998717</v>
+        <v>5.711678333856499</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.5102906748567</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.578155280588625</v>
       </c>
       <c r="O23">
-        <v>20.24185535453126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>15.38952114431239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.70119673456646</v>
+        <v>16.61280707981962</v>
       </c>
       <c r="C24">
-        <v>7.198524809950248</v>
+        <v>8.329227634547431</v>
       </c>
       <c r="D24">
-        <v>5.732557413263673</v>
+        <v>6.837125714688587</v>
       </c>
       <c r="E24">
-        <v>8.1183979112781</v>
+        <v>8.298261495403684</v>
       </c>
       <c r="F24">
-        <v>27.37836642979215</v>
+        <v>21.61255180217813</v>
       </c>
       <c r="G24">
-        <v>2.11764480407016</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>23.66606016921087</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.108969142681917</v>
       </c>
       <c r="J24">
-        <v>5.985079078464795</v>
+        <v>9.467044774780998</v>
       </c>
       <c r="K24">
-        <v>13.03450519766719</v>
+        <v>15.40707673046882</v>
       </c>
       <c r="L24">
-        <v>6.970833744292794</v>
+        <v>5.765570936640301</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.57334610189135</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.307802600700987</v>
       </c>
       <c r="O24">
-        <v>20.21497357291127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>15.50453423652041</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.22827986870643</v>
+        <v>15.07796567459182</v>
       </c>
       <c r="C25">
-        <v>7.12815722889021</v>
+        <v>8.056140908604247</v>
       </c>
       <c r="D25">
-        <v>5.391670814878117</v>
+        <v>6.452674654982136</v>
       </c>
       <c r="E25">
-        <v>8.002001717997185</v>
+        <v>8.168950890659959</v>
       </c>
       <c r="F25">
-        <v>27.06057220624575</v>
+        <v>21.48039227687284</v>
       </c>
       <c r="G25">
-        <v>2.127192559254087</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>23.61215346327889</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.394288336366876</v>
       </c>
       <c r="J25">
-        <v>6.069498743752125</v>
+        <v>9.605273590499024</v>
       </c>
       <c r="K25">
-        <v>11.89410166390988</v>
+        <v>15.7012144701902</v>
       </c>
       <c r="L25">
-        <v>6.708958775580305</v>
+        <v>5.8270965775124</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.48491064370902</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.016703005762248</v>
       </c>
       <c r="O25">
-        <v>20.25162912768664</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>15.66512947197489</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.85564855234587</v>
+        <v>13.84665751150489</v>
       </c>
       <c r="C2">
-        <v>7.814206871757194</v>
+        <v>7.525191378423618</v>
       </c>
       <c r="D2">
-        <v>6.155655140677574</v>
+        <v>6.189076283227043</v>
       </c>
       <c r="E2">
-        <v>8.090503851845169</v>
+        <v>7.949547426856777</v>
       </c>
       <c r="F2">
-        <v>21.48218475102945</v>
+        <v>20.88589764855023</v>
       </c>
       <c r="G2">
-        <v>23.72727342677469</v>
+        <v>22.42043459598099</v>
       </c>
       <c r="I2">
-        <v>3.592548227675536</v>
+        <v>3.414298766342255</v>
       </c>
       <c r="J2">
-        <v>9.734188309160889</v>
+        <v>9.746766626045147</v>
       </c>
       <c r="K2">
-        <v>15.97641860728155</v>
+        <v>15.36814189936192</v>
       </c>
       <c r="L2">
-        <v>5.879255198119284</v>
+        <v>12.33458033423851</v>
       </c>
       <c r="M2">
-        <v>11.6036781861097</v>
+        <v>10.35237355597877</v>
       </c>
       <c r="N2">
-        <v>6.789541201330385</v>
+        <v>5.76939601133064</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.69956308584588</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.934247844603727</v>
       </c>
       <c r="Q2">
-        <v>15.8493452243149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>15.3941227171326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.94778577951303</v>
+        <v>12.9624365678774</v>
       </c>
       <c r="C3">
-        <v>7.668357480268051</v>
+        <v>7.303734573062096</v>
       </c>
       <c r="D3">
-        <v>5.953816532472063</v>
+        <v>5.982743506629806</v>
       </c>
       <c r="E3">
-        <v>8.036918342420416</v>
+        <v>7.899252103971934</v>
       </c>
       <c r="F3">
-        <v>21.47669835143222</v>
+        <v>20.90512427442683</v>
       </c>
       <c r="G3">
-        <v>23.78890175080114</v>
+        <v>22.57784283595651</v>
       </c>
       <c r="I3">
-        <v>3.748465994336775</v>
+        <v>3.553112347455918</v>
       </c>
       <c r="J3">
-        <v>9.820293218543471</v>
+        <v>9.799944907123544</v>
       </c>
       <c r="K3">
-        <v>16.15318218002966</v>
+        <v>15.55253398782688</v>
       </c>
       <c r="L3">
-        <v>5.91424516367363</v>
+        <v>12.51201300670136</v>
       </c>
       <c r="M3">
-        <v>10.973668558884</v>
+        <v>10.49092609426289</v>
       </c>
       <c r="N3">
-        <v>6.645846828257171</v>
+        <v>5.803095765474977</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.05937697896083</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.781773148964364</v>
       </c>
       <c r="Q3">
-        <v>15.96925105511513</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>15.52690411672546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.35542642483516</v>
+        <v>12.38569802468275</v>
       </c>
       <c r="C4">
-        <v>7.57819678210536</v>
+        <v>7.16652471286693</v>
       </c>
       <c r="D4">
-        <v>5.828612424495576</v>
+        <v>5.854738470050068</v>
       </c>
       <c r="E4">
-        <v>8.00625442634295</v>
+        <v>7.870349451305751</v>
       </c>
       <c r="F4">
-        <v>21.48431080702526</v>
+        <v>20.92627058164604</v>
       </c>
       <c r="G4">
-        <v>23.8419074659961</v>
+        <v>22.69025301696746</v>
       </c>
       <c r="I4">
-        <v>3.848463692863831</v>
+        <v>3.642430998262353</v>
       </c>
       <c r="J4">
-        <v>9.876376738814498</v>
+        <v>9.834187364287059</v>
       </c>
       <c r="K4">
-        <v>16.26686473726125</v>
+        <v>15.66970194525013</v>
       </c>
       <c r="L4">
-        <v>5.936583385788831</v>
+        <v>12.62428248200521</v>
       </c>
       <c r="M4">
-        <v>10.56762585614484</v>
+        <v>10.59257996782502</v>
       </c>
       <c r="N4">
-        <v>6.559173743671225</v>
+        <v>5.824523725274023</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.64689821062269</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.689863629196445</v>
       </c>
       <c r="Q4">
-        <v>16.04997346967005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>15.61432503458847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.10302206371895</v>
+        <v>12.13998185850874</v>
       </c>
       <c r="C5">
-        <v>7.545067151133273</v>
+        <v>7.114813774409575</v>
       </c>
       <c r="D5">
-        <v>5.778014419133273</v>
+        <v>5.802989470073666</v>
       </c>
       <c r="E5">
-        <v>7.993352664647424</v>
+        <v>7.858109259451654</v>
       </c>
       <c r="F5">
-        <v>21.48419910450276</v>
+        <v>20.93131773655018</v>
       </c>
       <c r="G5">
-        <v>23.85756841501775</v>
+        <v>22.73037190467426</v>
       </c>
       <c r="I5">
-        <v>3.892783022011458</v>
+        <v>3.682783484904636</v>
       </c>
       <c r="J5">
-        <v>9.898465441246792</v>
+        <v>9.846942167288042</v>
       </c>
       <c r="K5">
-        <v>16.31048558125078</v>
+        <v>15.71457152191165</v>
       </c>
       <c r="L5">
-        <v>5.945483245854635</v>
+        <v>12.66684639973596</v>
       </c>
       <c r="M5">
-        <v>10.39899883355292</v>
+        <v>10.63629266344196</v>
       </c>
       <c r="N5">
-        <v>6.525904204239838</v>
+        <v>5.83303750402898</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.47560205700452</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.654481294577264</v>
       </c>
       <c r="Q5">
-        <v>16.08069774484599</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>15.6475450909968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.05788612781647</v>
+        <v>12.09601157693739</v>
       </c>
       <c r="C6">
-        <v>7.544181213558855</v>
+        <v>7.111709245182851</v>
       </c>
       <c r="D6">
-        <v>5.770414593466743</v>
+        <v>5.795193394269392</v>
       </c>
       <c r="E6">
-        <v>7.990053404360406</v>
+        <v>7.854927387799602</v>
       </c>
       <c r="F6">
-        <v>21.47711718675518</v>
+        <v>20.92513457917665</v>
       </c>
       <c r="G6">
-        <v>23.84863284691027</v>
+        <v>22.72567919442292</v>
       </c>
       <c r="I6">
-        <v>3.903392580642069</v>
+        <v>3.693299389633486</v>
       </c>
       <c r="J6">
-        <v>9.900272722883008</v>
+        <v>9.847133706016034</v>
       </c>
       <c r="K6">
-        <v>16.3129432145533</v>
+        <v>15.71736700748635</v>
       </c>
       <c r="L6">
-        <v>5.946461602148382</v>
+        <v>12.66905503885787</v>
       </c>
       <c r="M6">
-        <v>10.37265776083013</v>
+        <v>10.64160181442887</v>
       </c>
       <c r="N6">
-        <v>6.52238626406751</v>
+        <v>5.833967736093983</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.44880323424014</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.65058451044683</v>
       </c>
       <c r="Q6">
-        <v>16.08112843841636</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>15.64844772074745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.34488451067439</v>
+        <v>12.37611416434079</v>
       </c>
       <c r="C7">
-        <v>7.590360189709985</v>
+        <v>7.177968882877765</v>
       </c>
       <c r="D7">
-        <v>5.830124908827409</v>
+        <v>5.8596132914001</v>
       </c>
       <c r="E7">
-        <v>8.002833066757034</v>
+        <v>7.867951258574188</v>
       </c>
       <c r="F7">
-        <v>21.46460082856063</v>
+        <v>20.89632200934768</v>
       </c>
       <c r="G7">
-        <v>23.81001891245979</v>
+        <v>22.71742095527109</v>
       </c>
       <c r="I7">
-        <v>3.857479973055691</v>
+        <v>3.653370893634258</v>
       </c>
       <c r="J7">
-        <v>9.871467447922292</v>
+        <v>9.802139225944524</v>
       </c>
       <c r="K7">
-        <v>16.25417195929725</v>
+        <v>15.65256365820113</v>
       </c>
       <c r="L7">
-        <v>5.935310123609688</v>
+        <v>12.6068308807988</v>
       </c>
       <c r="M7">
-        <v>10.57059197079286</v>
+        <v>10.58437740259851</v>
       </c>
       <c r="N7">
-        <v>6.564082203888219</v>
+        <v>5.823126747444418</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.64862645676761</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.69474660656796</v>
       </c>
       <c r="Q7">
-        <v>16.03734763360066</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>15.59459160500862</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.54109142047923</v>
+        <v>13.54252207871954</v>
       </c>
       <c r="C8">
-        <v>7.780697347965136</v>
+        <v>7.459697671409292</v>
       </c>
       <c r="D8">
-        <v>6.089140707636552</v>
+        <v>6.131840756030963</v>
       </c>
       <c r="E8">
-        <v>8.067314863067301</v>
+        <v>7.930855742071887</v>
       </c>
       <c r="F8">
-        <v>21.45208311763009</v>
+        <v>20.83036542986297</v>
       </c>
       <c r="G8">
-        <v>23.70297949748393</v>
+        <v>22.62580861929769</v>
       </c>
       <c r="I8">
-        <v>3.656128205331007</v>
+        <v>3.475411984638682</v>
       </c>
       <c r="J8">
-        <v>9.756345809993029</v>
+        <v>9.670336254019638</v>
       </c>
       <c r="K8">
-        <v>16.01874166863074</v>
+        <v>15.39805410138538</v>
       </c>
       <c r="L8">
-        <v>5.889332027611837</v>
+        <v>12.36465174287678</v>
       </c>
       <c r="M8">
-        <v>11.39701164617558</v>
+        <v>10.37705675641287</v>
       </c>
       <c r="N8">
-        <v>6.746578423466085</v>
+        <v>5.778598006003365</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.48581448014238</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.888354000793832</v>
       </c>
       <c r="Q8">
-        <v>15.87197061327249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>15.39746643869289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.62253898581047</v>
+        <v>15.57077078512866</v>
       </c>
       <c r="C9">
-        <v>8.126412967874778</v>
+        <v>7.984355135164875</v>
       </c>
       <c r="D9">
-        <v>6.580122327971615</v>
+        <v>6.635652672431334</v>
       </c>
       <c r="E9">
-        <v>8.217000878786957</v>
+        <v>8.071736792220033</v>
       </c>
       <c r="F9">
-        <v>21.55262926192845</v>
+        <v>20.8508761904317</v>
       </c>
       <c r="G9">
-        <v>23.676903249275</v>
+        <v>22.42157850528805</v>
       </c>
       <c r="I9">
-        <v>3.280892216904951</v>
+        <v>3.140557179246686</v>
       </c>
       <c r="J9">
-        <v>9.566008470902444</v>
+        <v>9.528526871257984</v>
       </c>
       <c r="K9">
-        <v>15.62263046291242</v>
+        <v>14.97105106291403</v>
       </c>
       <c r="L9">
-        <v>5.808315223556446</v>
+        <v>11.95439781370641</v>
       </c>
       <c r="M9">
-        <v>12.85382681785567</v>
+        <v>10.12880604013156</v>
       </c>
       <c r="N9">
-        <v>7.105734497484266</v>
+        <v>5.699979687921719</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.96616713574082</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.270007479062055</v>
       </c>
       <c r="Q9">
-        <v>15.62968605881645</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>15.10900335959288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.98295338905519</v>
+        <v>16.89999235365937</v>
       </c>
       <c r="C10">
-        <v>8.383374954023372</v>
+        <v>8.353280353787273</v>
       </c>
       <c r="D10">
-        <v>6.92991361524971</v>
+        <v>7.01118936572564</v>
       </c>
       <c r="E10">
-        <v>8.335703244302248</v>
+        <v>8.188457953576652</v>
       </c>
       <c r="F10">
-        <v>21.67589363135852</v>
+        <v>20.84797215564752</v>
       </c>
       <c r="G10">
-        <v>23.72782041065125</v>
+        <v>22.7039111215188</v>
       </c>
       <c r="I10">
-        <v>3.030064563410172</v>
+        <v>2.921877287091673</v>
       </c>
       <c r="J10">
-        <v>9.440544576691735</v>
+        <v>9.284227474323549</v>
       </c>
       <c r="K10">
-        <v>15.35210376327794</v>
+        <v>14.64352436597784</v>
       </c>
       <c r="L10">
-        <v>5.752135620785543</v>
+        <v>11.64463687312441</v>
       </c>
       <c r="M10">
-        <v>13.82915886759807</v>
+        <v>10.00588299968985</v>
       </c>
       <c r="N10">
-        <v>7.375999499598865</v>
+        <v>5.644176208602925</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.95202742071038</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.557040902192785</v>
       </c>
       <c r="Q10">
-        <v>15.48458907863168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>14.88060072133821</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.55788204898413</v>
+        <v>17.46757395623972</v>
       </c>
       <c r="C11">
-        <v>8.51962427949395</v>
+        <v>8.516672985159873</v>
       </c>
       <c r="D11">
-        <v>7.088655480876496</v>
+        <v>7.210670351685051</v>
       </c>
       <c r="E11">
-        <v>8.38682383915949</v>
+        <v>8.248633592511615</v>
       </c>
       <c r="F11">
-        <v>21.71469148964218</v>
+        <v>20.7232523932617</v>
       </c>
       <c r="G11">
-        <v>23.72049556166748</v>
+        <v>23.4510714573822</v>
       </c>
       <c r="I11">
-        <v>2.935838031746154</v>
+        <v>2.848535242574881</v>
       </c>
       <c r="J11">
-        <v>9.378952831137182</v>
+        <v>8.944846067467864</v>
       </c>
       <c r="K11">
-        <v>15.21350813475653</v>
+        <v>14.43031612681847</v>
       </c>
       <c r="L11">
-        <v>5.725279906326161</v>
+        <v>11.46247540722644</v>
       </c>
       <c r="M11">
-        <v>14.25807017389279</v>
+        <v>9.909017743238554</v>
       </c>
       <c r="N11">
-        <v>7.506859131860769</v>
+        <v>5.616081654798987</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.37671753429517</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.695512978300931</v>
       </c>
       <c r="Q11">
-        <v>15.40677653586531</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>14.68837847290699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.77519154461096</v>
+        <v>17.68284768078166</v>
       </c>
       <c r="C12">
-        <v>8.560365286579454</v>
+        <v>8.562640187532242</v>
       </c>
       <c r="D12">
-        <v>7.146677913872086</v>
+        <v>7.287614540631856</v>
       </c>
       <c r="E12">
-        <v>8.409172058932349</v>
+        <v>8.275674322243203</v>
       </c>
       <c r="F12">
-        <v>21.74793756895884</v>
+        <v>20.68037596720246</v>
       </c>
       <c r="G12">
-        <v>23.74802742401661</v>
+        <v>23.85517801275217</v>
       </c>
       <c r="I12">
-        <v>2.892931845624924</v>
+        <v>2.812341217688199</v>
       </c>
       <c r="J12">
-        <v>9.360696531854083</v>
+        <v>8.807003020285041</v>
       </c>
       <c r="K12">
-        <v>15.17352408742471</v>
+        <v>14.35450332119458</v>
       </c>
       <c r="L12">
-        <v>5.716379275550066</v>
+        <v>11.3982396674209</v>
       </c>
       <c r="M12">
-        <v>14.41374763381235</v>
+        <v>9.877667240901685</v>
       </c>
       <c r="N12">
-        <v>7.552334131543587</v>
+        <v>5.606437155128059</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.52983038037236</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.743880651084449</v>
       </c>
       <c r="Q12">
-        <v>15.38998770107899</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>14.61760068755245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.7295258364432</v>
+        <v>17.63757117725705</v>
       </c>
       <c r="C13">
-        <v>8.549440821963096</v>
+        <v>8.550373501495534</v>
       </c>
       <c r="D13">
-        <v>7.133896122156629</v>
+        <v>7.270603962391707</v>
       </c>
       <c r="E13">
-        <v>8.404883546135965</v>
+        <v>8.270306796490104</v>
       </c>
       <c r="F13">
-        <v>21.74399346231928</v>
+        <v>20.69333163047719</v>
       </c>
       <c r="G13">
-        <v>23.74740681644703</v>
+        <v>23.76940452921424</v>
       </c>
       <c r="I13">
-        <v>2.900447291021913</v>
+        <v>2.818078803092213</v>
       </c>
       <c r="J13">
-        <v>9.365503709576608</v>
+        <v>8.837544661722474</v>
       </c>
       <c r="K13">
-        <v>15.18442153002419</v>
+        <v>14.37316870990159</v>
       </c>
       <c r="L13">
-        <v>5.718520953025862</v>
+        <v>11.41356939607902</v>
       </c>
       <c r="M13">
-        <v>14.37964173896002</v>
+        <v>9.886396317946829</v>
       </c>
       <c r="N13">
-        <v>7.541730002860782</v>
+        <v>5.608729053499597</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.49632136006991</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7.732665937606488</v>
       </c>
       <c r="Q13">
-        <v>15.39580243342687</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>14.63536300167566</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.57625163292101</v>
+        <v>17.4857542243266</v>
       </c>
       <c r="C14">
-        <v>8.522060476119027</v>
+        <v>8.519448068197368</v>
       </c>
       <c r="D14">
-        <v>7.093307399212813</v>
+        <v>7.216809802364859</v>
       </c>
       <c r="E14">
-        <v>8.388885389210806</v>
+        <v>8.251050704100319</v>
       </c>
       <c r="F14">
-        <v>21.71879287214908</v>
+        <v>20.72132292477935</v>
       </c>
       <c r="G14">
-        <v>23.72501565543001</v>
+        <v>23.48474701284843</v>
       </c>
       <c r="I14">
-        <v>2.931571646907419</v>
+        <v>2.844678137195074</v>
       </c>
       <c r="J14">
-        <v>9.377822023666766</v>
+        <v>8.933927076050354</v>
       </c>
       <c r="K14">
-        <v>15.21118797694926</v>
+        <v>14.42508235090591</v>
       </c>
       <c r="L14">
-        <v>5.724643065515435</v>
+        <v>11.45784016680077</v>
       </c>
       <c r="M14">
-        <v>14.27063381397146</v>
+        <v>9.907277959407711</v>
       </c>
       <c r="N14">
-        <v>7.510254499462371</v>
+        <v>5.615379744962806</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.38909034230692</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>7.699151597444454</v>
       </c>
       <c r="Q14">
-        <v>15.40632800820301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>14.68363837547781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.479885938652</v>
+        <v>17.39041273511866</v>
       </c>
       <c r="C15">
-        <v>8.509542767860518</v>
+        <v>8.505075251596599</v>
       </c>
       <c r="D15">
-        <v>7.068993795262539</v>
+        <v>7.184858465921294</v>
       </c>
       <c r="E15">
-        <v>8.378061679969507</v>
+        <v>8.238422446304369</v>
       </c>
       <c r="F15">
-        <v>21.69708985604594</v>
+        <v>20.73060170378005</v>
       </c>
       <c r="G15">
-        <v>23.70095020679645</v>
+        <v>23.3119800340092</v>
       </c>
       <c r="I15">
-        <v>2.954123132448408</v>
+        <v>2.86514534236326</v>
       </c>
       <c r="J15">
-        <v>9.383669410050166</v>
+        <v>8.990488604828307</v>
       </c>
       <c r="K15">
-        <v>15.22313015057537</v>
+        <v>14.45200167842092</v>
       </c>
       <c r="L15">
-        <v>5.727954972047998</v>
+        <v>11.48180366240605</v>
       </c>
       <c r="M15">
-        <v>14.20488839073896</v>
+        <v>9.916061850965736</v>
       </c>
       <c r="N15">
-        <v>7.492586090196138</v>
+        <v>5.619025589786494</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.32430344132009</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>7.680208309545739</v>
       </c>
       <c r="Q15">
-        <v>15.40850517013528</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>14.70784779219131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.92896473016024</v>
+        <v>16.84681150039571</v>
       </c>
       <c r="C16">
-        <v>8.410459151079404</v>
+        <v>8.384543413235191</v>
       </c>
       <c r="D16">
-        <v>6.924757832371219</v>
+        <v>7.003806200822647</v>
       </c>
       <c r="E16">
-        <v>8.323400656126667</v>
+        <v>8.175884344766288</v>
       </c>
       <c r="F16">
-        <v>21.61834761486693</v>
+        <v>20.80083460425917</v>
       </c>
       <c r="G16">
-        <v>23.63772281640556</v>
+        <v>22.57595639351995</v>
       </c>
       <c r="I16">
-        <v>3.063212929984049</v>
+        <v>2.958831953816463</v>
       </c>
       <c r="J16">
-        <v>9.429686821439402</v>
+        <v>9.290888684084495</v>
       </c>
       <c r="K16">
-        <v>15.32272393195916</v>
+        <v>14.62138600873839</v>
       </c>
       <c r="L16">
-        <v>5.750070074388156</v>
+        <v>11.63114244238322</v>
       </c>
       <c r="M16">
-        <v>13.81295760693608</v>
+        <v>9.982525452047726</v>
       </c>
       <c r="N16">
-        <v>7.381189275607851</v>
+        <v>5.642444208110161</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.93591844906401</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>7.561563805327184</v>
       </c>
       <c r="Q16">
-        <v>15.45227227041688</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>14.85618373022644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.58190155174841</v>
+        <v>16.50566313125992</v>
       </c>
       <c r="C17">
-        <v>8.349381653753312</v>
+        <v>8.304609483007171</v>
       </c>
       <c r="D17">
-        <v>6.835404332704269</v>
+        <v>6.897945843336492</v>
       </c>
       <c r="E17">
-        <v>8.290438698514828</v>
+        <v>8.140255223281896</v>
       </c>
       <c r="F17">
-        <v>21.57376815122626</v>
+        <v>20.82430291367566</v>
       </c>
       <c r="G17">
-        <v>23.604613693779</v>
+        <v>22.27762143193202</v>
       </c>
       <c r="I17">
-        <v>3.131323166079151</v>
+        <v>3.01813550481477</v>
       </c>
       <c r="J17">
-        <v>9.459000554741797</v>
+        <v>9.435667028462429</v>
       </c>
       <c r="K17">
-        <v>15.3856352308686</v>
+        <v>14.7159054819056</v>
       </c>
       <c r="L17">
-        <v>5.76386744889015</v>
+        <v>11.71744139539602</v>
       </c>
       <c r="M17">
-        <v>13.56702785226803</v>
+        <v>10.01847388163319</v>
       </c>
       <c r="N17">
-        <v>7.312901402681038</v>
+        <v>5.656701352063902</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.69034715633527</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7.4888031356718</v>
       </c>
       <c r="Q17">
-        <v>15.48173249493783</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>14.93268787434258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.38382835389071</v>
+        <v>16.3114454804791</v>
       </c>
       <c r="C18">
-        <v>8.303091508552562</v>
+        <v>8.243356589625991</v>
       </c>
       <c r="D18">
-        <v>6.782067264285528</v>
+        <v>6.837322937987131</v>
       </c>
       <c r="E18">
-        <v>8.274438054550142</v>
+        <v>8.123422905212504</v>
       </c>
       <c r="F18">
-        <v>21.56629931770892</v>
+        <v>20.8473393870158</v>
       </c>
       <c r="G18">
-        <v>23.61525948762916</v>
+        <v>22.18527826354034</v>
       </c>
       <c r="I18">
-        <v>3.16206974832094</v>
+        <v>3.04233092261312</v>
       </c>
       <c r="J18">
-        <v>9.480776137144325</v>
+        <v>9.505642410191555</v>
       </c>
       <c r="K18">
-        <v>15.43409309778126</v>
+        <v>14.777766022553</v>
       </c>
       <c r="L18">
-        <v>5.773053025244432</v>
+        <v>11.77297461792518</v>
       </c>
       <c r="M18">
-        <v>13.41975220294708</v>
+        <v>10.04631606444652</v>
       </c>
       <c r="N18">
-        <v>7.269421090880175</v>
+        <v>5.665948895696648</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.54260754068371</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.44280379712596</v>
       </c>
       <c r="Q18">
-        <v>15.51098805775429</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>14.98256735051784</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.31241504149569</v>
+        <v>16.2414781534472</v>
       </c>
       <c r="C19">
-        <v>8.295913276159187</v>
+        <v>8.232302125801366</v>
       </c>
       <c r="D19">
-        <v>6.765219981165879</v>
+        <v>6.81837117437548</v>
       </c>
       <c r="E19">
-        <v>8.266940882049454</v>
+        <v>8.115803898438667</v>
       </c>
       <c r="F19">
-        <v>21.55102937554224</v>
+        <v>20.84133877306223</v>
       </c>
       <c r="G19">
-        <v>23.59788922006832</v>
+        <v>22.14140069166064</v>
       </c>
       <c r="I19">
-        <v>3.179323419444242</v>
+        <v>3.058739931100022</v>
       </c>
       <c r="J19">
-        <v>9.484724698670554</v>
+        <v>9.522886625607084</v>
       </c>
       <c r="K19">
-        <v>15.4416429241481</v>
+        <v>14.78985564527148</v>
       </c>
       <c r="L19">
-        <v>5.775279439301576</v>
+        <v>11.78528370513295</v>
       </c>
       <c r="M19">
-        <v>13.37247522738399</v>
+        <v>10.04888769073731</v>
       </c>
       <c r="N19">
-        <v>7.2579666393298</v>
+        <v>5.668236468737103</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.49504399426483</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.430458821870524</v>
       </c>
       <c r="Q19">
-        <v>15.51227649630433</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>14.99018932400907</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.61957379555494</v>
+        <v>16.54264665927291</v>
       </c>
       <c r="C20">
-        <v>8.35502846397549</v>
+        <v>8.312325916249371</v>
       </c>
       <c r="D20">
-        <v>6.844820469926222</v>
+        <v>6.908892191232539</v>
       </c>
       <c r="E20">
-        <v>8.294140503051564</v>
+        <v>8.144158878793636</v>
       </c>
       <c r="F20">
-        <v>21.57969104059839</v>
+        <v>20.82380735048767</v>
       </c>
       <c r="G20">
-        <v>23.61009202645323</v>
+        <v>22.30606692065568</v>
       </c>
       <c r="I20">
-        <v>3.123321108106464</v>
+        <v>3.010905457275319</v>
       </c>
       <c r="J20">
-        <v>9.456194551521213</v>
+        <v>9.422347847216606</v>
       </c>
       <c r="K20">
-        <v>15.37978272682669</v>
+        <v>14.70702909183175</v>
       </c>
       <c r="L20">
-        <v>5.762481148654667</v>
+        <v>11.70907889447872</v>
       </c>
       <c r="M20">
-        <v>13.59311987555573</v>
+        <v>10.0154846845341</v>
       </c>
       <c r="N20">
-        <v>7.319837785714323</v>
+        <v>5.655272572708879</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.71647261004092</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.496219615334273</v>
       </c>
       <c r="Q20">
-        <v>15.47939159608671</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>14.92592781139892</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.61628184100925</v>
+        <v>17.52754524245489</v>
       </c>
       <c r="C21">
-        <v>8.542230785946581</v>
+        <v>8.533677144741599</v>
       </c>
       <c r="D21">
-        <v>7.106983664670881</v>
+        <v>7.244770989561896</v>
       </c>
       <c r="E21">
-        <v>8.390557433926542</v>
+        <v>8.257305128673623</v>
       </c>
       <c r="F21">
-        <v>21.70757976689644</v>
+        <v>20.658149639826</v>
       </c>
       <c r="G21">
-        <v>23.70093488254385</v>
+        <v>23.76702428972635</v>
       </c>
       <c r="I21">
-        <v>2.932187952802173</v>
+        <v>2.849652449321567</v>
       </c>
       <c r="J21">
-        <v>9.369132110929106</v>
+        <v>8.832845714969274</v>
       </c>
       <c r="K21">
-        <v>15.1902556862298</v>
+        <v>14.38105829750058</v>
       </c>
       <c r="L21">
-        <v>5.721551097071128</v>
+        <v>11.42554769749035</v>
       </c>
       <c r="M21">
-        <v>14.30676446616481</v>
+        <v>9.876213741651247</v>
       </c>
       <c r="N21">
-        <v>7.524054438078141</v>
+        <v>5.611725009950607</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.4216497140924</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.713546290774545</v>
       </c>
       <c r="Q21">
-        <v>15.39050647964888</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.63099331798223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.24459830219283</v>
+        <v>18.14925711549026</v>
       </c>
       <c r="C22">
-        <v>8.648214462974698</v>
+        <v>8.656269712101858</v>
       </c>
       <c r="D22">
-        <v>7.273089130657207</v>
+        <v>7.462014692786331</v>
       </c>
       <c r="E22">
-        <v>8.459233250844203</v>
+        <v>8.338572760380735</v>
       </c>
       <c r="F22">
-        <v>21.82714794729568</v>
+        <v>20.56629927355492</v>
       </c>
       <c r="G22">
-        <v>23.8182398062011</v>
+        <v>24.92968151885137</v>
       </c>
       <c r="I22">
-        <v>2.798595831960479</v>
+        <v>2.732947562544082</v>
       </c>
       <c r="J22">
-        <v>9.322298325834319</v>
+        <v>8.505362758060159</v>
       </c>
       <c r="K22">
-        <v>15.08907182832257</v>
+        <v>14.17862801375095</v>
       </c>
       <c r="L22">
-        <v>5.697190338230036</v>
+        <v>11.25358681832795</v>
       </c>
       <c r="M22">
-        <v>14.7500329083754</v>
+        <v>9.802798638822129</v>
       </c>
       <c r="N22">
-        <v>7.651765159213994</v>
+        <v>5.58525375503069</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.85881004800223</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.849563437836933</v>
       </c>
       <c r="Q22">
-        <v>15.3573761947941</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.44698731285981</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.91807075267601</v>
+        <v>17.82458387648947</v>
       </c>
       <c r="C23">
-        <v>8.577193499579204</v>
+        <v>8.580469273868156</v>
       </c>
       <c r="D23">
-        <v>7.182645850187217</v>
+        <v>7.336789388208449</v>
       </c>
       <c r="E23">
-        <v>8.426045184176042</v>
+        <v>8.295925658324958</v>
       </c>
       <c r="F23">
-        <v>21.78450404668938</v>
+        <v>20.66330290679807</v>
       </c>
       <c r="G23">
-        <v>23.79063036402009</v>
+        <v>24.16848507040936</v>
       </c>
       <c r="I23">
-        <v>2.858096363190858</v>
+        <v>2.780538021992675</v>
       </c>
       <c r="J23">
-        <v>9.353048764894535</v>
+        <v>8.719337657572222</v>
       </c>
       <c r="K23">
-        <v>15.15824929553521</v>
+        <v>14.31303743552909</v>
       </c>
       <c r="L23">
-        <v>5.711678333856499</v>
+        <v>11.36202712000359</v>
       </c>
       <c r="M23">
-        <v>14.5102906748567</v>
+        <v>9.864355200364345</v>
       </c>
       <c r="N23">
-        <v>7.578155280588625</v>
+        <v>5.601119488798508</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.62446668547478</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.771597413305839</v>
       </c>
       <c r="Q23">
-        <v>15.38952114431239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.57868560167613</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.61280707981962</v>
+        <v>16.53604992015246</v>
       </c>
       <c r="C24">
-        <v>8.329227634547431</v>
+        <v>8.281384772012064</v>
       </c>
       <c r="D24">
-        <v>6.837125714688587</v>
+        <v>6.900528103445492</v>
       </c>
       <c r="E24">
-        <v>8.298261495403684</v>
+        <v>8.148089677509908</v>
       </c>
       <c r="F24">
-        <v>21.61255180217813</v>
+        <v>20.85867940004583</v>
       </c>
       <c r="G24">
-        <v>23.66606016921087</v>
+        <v>22.35120188882407</v>
       </c>
       <c r="I24">
-        <v>3.108969142681917</v>
+        <v>2.992719367789754</v>
       </c>
       <c r="J24">
-        <v>9.467044774780998</v>
+        <v>9.437174745016751</v>
       </c>
       <c r="K24">
-        <v>15.40707673046882</v>
+        <v>14.73381340700296</v>
       </c>
       <c r="L24">
-        <v>5.765570936640301</v>
+        <v>11.72942903575139</v>
       </c>
       <c r="M24">
-        <v>13.57334610189135</v>
+        <v>10.03526145911751</v>
       </c>
       <c r="N24">
-        <v>7.307802600700987</v>
+        <v>5.658210526758419</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.69671472468085</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.484074485108094</v>
       </c>
       <c r="Q24">
-        <v>15.50453423652041</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.95207334289744</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.07796567459182</v>
+        <v>15.03899331081261</v>
       </c>
       <c r="C25">
-        <v>8.056140908604247</v>
+        <v>7.874705418692406</v>
       </c>
       <c r="D25">
-        <v>6.452674654982136</v>
+        <v>6.500400709896029</v>
       </c>
       <c r="E25">
-        <v>8.168950890659959</v>
+        <v>8.02498163715037</v>
       </c>
       <c r="F25">
-        <v>21.48039227687284</v>
+        <v>20.81718432803999</v>
       </c>
       <c r="G25">
-        <v>23.61215346327889</v>
+        <v>22.31939757848017</v>
       </c>
       <c r="I25">
-        <v>3.394288336366876</v>
+        <v>3.24543862117382</v>
       </c>
       <c r="J25">
-        <v>9.605273590499024</v>
+        <v>9.593588692610259</v>
       </c>
       <c r="K25">
-        <v>15.7012144701902</v>
+        <v>15.06752217276371</v>
       </c>
       <c r="L25">
-        <v>5.8270965775124</v>
+        <v>12.0499674968951</v>
       </c>
       <c r="M25">
-        <v>12.48491064370902</v>
+        <v>10.16966898366986</v>
       </c>
       <c r="N25">
-        <v>7.016703005762248</v>
+        <v>5.718578691356977</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.59249886159288</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.174661922163694</v>
       </c>
       <c r="Q25">
-        <v>15.66512947197489</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>15.16935858746708</v>
       </c>
     </row>
   </sheetData>
